--- a/1. Project management/AS_PM_MasterDesignPLan.xlsx
+++ b/1. Project management/AS_PM_MasterDesignPLan.xlsx
@@ -747,6 +747,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -756,13 +774,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,54 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,8 +1358,8 @@
   </sheetPr>
   <dimension ref="E2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L14"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1380,63 +1380,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1452,10 +1452,10 @@
       <c r="P5" s="25"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="55" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1464,7 +1464,7 @@
       <c r="H6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="48" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="30" t="s">
@@ -1482,15 +1482,15 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="40"/>
-      <c r="F7" s="77"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
@@ -1506,15 +1506,15 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="40"/>
-      <c r="F8" s="77"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="30" t="s">
         <v>64</v>
       </c>
@@ -1530,15 +1530,15 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="40"/>
-      <c r="F9" s="77"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="31">
         <v>41345</v>
       </c>
@@ -1554,15 +1554,15 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="40"/>
-      <c r="F10" s="77"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="31">
         <v>41345</v>
       </c>
@@ -1578,15 +1578,15 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="40"/>
-      <c r="F11" s="77"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="31">
         <v>41559</v>
       </c>
@@ -1600,8 +1600,8 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="40"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1610,7 +1610,7 @@
       <c r="H12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="30" t="s">
         <v>61</v>
       </c>
@@ -1624,46 +1624,46 @@
       <c r="P12" s="22"/>
     </row>
     <row r="13" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="60">
+      <c r="I13" s="49"/>
+      <c r="J13" s="76">
         <v>41620</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="76">
         <v>41620</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="5:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="41"/>
-      <c r="F14" s="62"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="32"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="55" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -1672,7 +1672,7 @@
       <c r="H15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="48" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="31">
@@ -1688,37 +1688,39 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E16" s="40"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="70"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="31">
         <v>41620</v>
       </c>
       <c r="K16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="30"/>
+      <c r="L16" s="31">
+        <v>41529</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="40"/>
-      <c r="F17" s="77"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="30" t="s">
         <v>66</v>
       </c>
@@ -1732,15 +1734,15 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="40"/>
-      <c r="F18" s="77"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="30" t="s">
         <v>67</v>
       </c>
@@ -1754,15 +1756,15 @@
       <c r="P18" s="22"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="40"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="30" t="s">
         <v>68</v>
       </c>
@@ -1776,15 +1778,15 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E20" s="40"/>
-      <c r="F20" s="78"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="30" t="s">
         <v>69</v>
       </c>
@@ -1798,8 +1800,8 @@
       <c r="P20" s="22"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="40"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -1808,29 +1810,31 @@
       <c r="H21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="70"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="31">
         <v>41619</v>
       </c>
       <c r="K21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="30"/>
+      <c r="L21" s="31">
+        <v>41529</v>
+      </c>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="40"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="70"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="31">
         <v>41619</v>
       </c>
@@ -1844,11 +1848,11 @@
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="41"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -1858,15 +1862,15 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="48" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="30"/>
@@ -1878,11 +1882,11 @@
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="40"/>
-      <c r="F25" s="64"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -1892,11 +1896,11 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="40"/>
-      <c r="F26" s="65"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="70"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -1906,13 +1910,13 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="40"/>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -1922,11 +1926,11 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="40"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -1936,11 +1940,11 @@
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="41"/>
-      <c r="F29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -1950,15 +1954,15 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="48" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="30"/>
@@ -1970,11 +1974,11 @@
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="40"/>
-      <c r="F31" s="64"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="49"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -1984,11 +1988,11 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="40"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -1998,13 +2002,13 @@
       <c r="P32" s="22"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="40"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -2014,11 +2018,11 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="40"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -2028,11 +2032,11 @@
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="41"/>
-      <c r="F35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
@@ -2042,15 +2046,15 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="73"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
@@ -2060,11 +2064,11 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="40"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="74"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
@@ -2074,11 +2078,11 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="40"/>
-      <c r="F38" s="65"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="74"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
@@ -2088,13 +2092,13 @@
       <c r="P38" s="22"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="40"/>
-      <c r="F39" s="36" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="74"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
@@ -2104,11 +2108,11 @@
       <c r="P39" s="22"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="40"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="74"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
@@ -2118,11 +2122,11 @@
       <c r="P40" s="22"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="41"/>
-      <c r="F41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="75"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
@@ -2132,15 +2136,15 @@
       <c r="P41" s="22"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="73"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -2150,11 +2154,11 @@
       <c r="P42" s="22"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="40"/>
-      <c r="F43" s="64"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="74"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -2164,11 +2168,11 @@
       <c r="P43" s="22"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="40"/>
-      <c r="F44" s="65"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="74"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
@@ -2178,13 +2182,13 @@
       <c r="P44" s="22"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="40"/>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="37"/>
+      <c r="F45" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="74"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
@@ -2194,11 +2198,11 @@
       <c r="P45" s="22"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="40"/>
-      <c r="F46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="74"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
@@ -2208,11 +2212,11 @@
       <c r="P46" s="22"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="41"/>
-      <c r="F47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="18"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="75"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
@@ -2222,15 +2226,15 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="73"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
@@ -2240,11 +2244,11 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="40"/>
-      <c r="F49" s="64"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="74"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -2254,11 +2258,11 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="40"/>
-      <c r="F50" s="65"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="74"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -2268,13 +2272,13 @@
       <c r="P50" s="22"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="40"/>
-      <c r="F51" s="36" t="s">
+      <c r="E51" s="37"/>
+      <c r="F51" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="74"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -2284,11 +2288,11 @@
       <c r="P51" s="22"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="40"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="53"/>
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
@@ -2298,11 +2302,11 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="41"/>
-      <c r="F53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="18"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="75"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
@@ -2313,6 +2317,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
     <mergeCell ref="E48:E53"/>
     <mergeCell ref="F48:F50"/>
     <mergeCell ref="F51:F53"/>
@@ -2329,26 +2353,6 @@
     <mergeCell ref="E36:E41"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="F39:F41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E15:E23"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E6:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>

--- a/1. Project management/AS_PM_MasterDesignPLan.xlsx
+++ b/1. Project management/AS_PM_MasterDesignPLan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>TIME</t>
   </si>
@@ -747,6 +747,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -756,13 +774,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,54 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,8 +1358,8 @@
   </sheetPr>
   <dimension ref="E2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1380,63 +1380,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1452,10 +1452,10 @@
       <c r="P5" s="25"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="55" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1464,7 +1464,7 @@
       <c r="H6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="48" t="s">
         <v>41</v>
       </c>
       <c r="J6" s="30" t="s">
@@ -1482,15 +1482,15 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="40"/>
-      <c r="F7" s="77"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
@@ -1506,15 +1506,15 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="40"/>
-      <c r="F8" s="77"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="30" t="s">
         <v>64</v>
       </c>
@@ -1530,15 +1530,15 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="40"/>
-      <c r="F9" s="77"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="31">
         <v>41345</v>
       </c>
@@ -1554,15 +1554,15 @@
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="40"/>
-      <c r="F10" s="77"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="31">
         <v>41345</v>
       </c>
@@ -1578,15 +1578,15 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="40"/>
-      <c r="F11" s="77"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="31">
         <v>41559</v>
       </c>
@@ -1602,8 +1602,8 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="40"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1612,7 +1612,7 @@
       <c r="H12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="30" t="s">
         <v>61</v>
       </c>
@@ -1626,46 +1626,46 @@
       <c r="P12" s="22"/>
     </row>
     <row r="13" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="60">
+      <c r="I13" s="49"/>
+      <c r="J13" s="76">
         <v>41620</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="76">
         <v>41620</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="5:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="41"/>
-      <c r="F14" s="62"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="78"/>
       <c r="G14" s="32"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="55" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -1674,7 +1674,7 @@
       <c r="H15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="48" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="31">
@@ -1690,15 +1690,15 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E16" s="40"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="70"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="31">
         <v>41620</v>
       </c>
@@ -1714,59 +1714,63 @@
       <c r="P16" s="22"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="40"/>
-      <c r="F17" s="77"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="30"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="31">
+        <v>41620</v>
+      </c>
+      <c r="K17" s="31">
+        <v>41620</v>
+      </c>
+      <c r="L17" s="31">
+        <v>41620</v>
+      </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="40"/>
-      <c r="F18" s="77"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="30" t="s">
         <v>67</v>
       </c>
       <c r="K18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="40"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="30" t="s">
         <v>68</v>
       </c>
@@ -1780,15 +1784,15 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E20" s="40"/>
-      <c r="F20" s="78"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="49"/>
       <c r="J20" s="30" t="s">
         <v>69</v>
       </c>
@@ -1802,8 +1806,8 @@
       <c r="P20" s="22"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="40"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -1812,7 +1816,7 @@
       <c r="H21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="70"/>
+      <c r="I21" s="49"/>
       <c r="J21" s="31">
         <v>41619</v>
       </c>
@@ -1828,15 +1832,15 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="40"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="70"/>
+      <c r="I22" s="49"/>
       <c r="J22" s="31">
         <v>41619</v>
       </c>
@@ -1850,11 +1854,11 @@
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="41"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="72"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -1864,15 +1868,15 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="48" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="30"/>
@@ -1884,11 +1888,11 @@
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="40"/>
-      <c r="F25" s="64"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -1898,11 +1902,11 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="40"/>
-      <c r="F26" s="65"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="70"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -1912,13 +1916,13 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="40"/>
-      <c r="F27" s="36" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -1928,11 +1932,11 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="40"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -1942,11 +1946,11 @@
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="41"/>
-      <c r="F29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="72"/>
+      <c r="I29" s="51"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -1956,15 +1960,15 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="48" t="s">
         <v>71</v>
       </c>
       <c r="J30" s="30"/>
@@ -1976,11 +1980,11 @@
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="40"/>
-      <c r="F31" s="64"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="49"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -1990,11 +1994,11 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="40"/>
-      <c r="F32" s="65"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -2004,13 +2008,13 @@
       <c r="P32" s="22"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="40"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="37"/>
+      <c r="F33" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="49"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -2020,11 +2024,11 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="40"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="49"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -2034,11 +2038,11 @@
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="41"/>
-      <c r="F35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="72"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
@@ -2048,15 +2052,15 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="63" t="s">
+      <c r="F36" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="73"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30"/>
@@ -2066,11 +2070,11 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="40"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="74"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
@@ -2080,11 +2084,11 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="40"/>
-      <c r="F38" s="65"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="74"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
       <c r="L38" s="30"/>
@@ -2094,13 +2098,13 @@
       <c r="P38" s="22"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="40"/>
-      <c r="F39" s="36" t="s">
+      <c r="E39" s="37"/>
+      <c r="F39" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="74"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
@@ -2110,11 +2114,11 @@
       <c r="P39" s="22"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="40"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="43"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="74"/>
+      <c r="I40" s="53"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
@@ -2124,11 +2128,11 @@
       <c r="P40" s="22"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="41"/>
-      <c r="F41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="75"/>
+      <c r="I41" s="54"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
       <c r="L41" s="30"/>
@@ -2138,15 +2142,15 @@
       <c r="P41" s="22"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="73"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -2156,11 +2160,11 @@
       <c r="P42" s="22"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="40"/>
-      <c r="F43" s="64"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="40"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="74"/>
+      <c r="I43" s="53"/>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -2170,11 +2174,11 @@
       <c r="P43" s="22"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="40"/>
-      <c r="F44" s="65"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="74"/>
+      <c r="I44" s="53"/>
       <c r="J44" s="30"/>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
@@ -2184,13 +2188,13 @@
       <c r="P44" s="22"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="40"/>
-      <c r="F45" s="36" t="s">
+      <c r="E45" s="37"/>
+      <c r="F45" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="74"/>
+      <c r="I45" s="53"/>
       <c r="J45" s="30"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
@@ -2200,11 +2204,11 @@
       <c r="P45" s="22"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="40"/>
-      <c r="F46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="43"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="74"/>
+      <c r="I46" s="53"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
       <c r="L46" s="30"/>
@@ -2214,11 +2218,11 @@
       <c r="P46" s="22"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="41"/>
-      <c r="F47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="18"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="75"/>
+      <c r="I47" s="54"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
@@ -2228,15 +2232,15 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="73"/>
+      <c r="I48" s="52"/>
       <c r="J48" s="30"/>
       <c r="K48" s="30"/>
       <c r="L48" s="30"/>
@@ -2246,11 +2250,11 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="40"/>
-      <c r="F49" s="64"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="74"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="30"/>
       <c r="K49" s="30"/>
       <c r="L49" s="30"/>
@@ -2260,11 +2264,11 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="40"/>
-      <c r="F50" s="65"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="74"/>
+      <c r="I50" s="53"/>
       <c r="J50" s="30"/>
       <c r="K50" s="30"/>
       <c r="L50" s="30"/>
@@ -2274,13 +2278,13 @@
       <c r="P50" s="22"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="40"/>
-      <c r="F51" s="36" t="s">
+      <c r="E51" s="37"/>
+      <c r="F51" s="42" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="74"/>
+      <c r="I51" s="53"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
       <c r="L51" s="30"/>
@@ -2290,11 +2294,11 @@
       <c r="P51" s="22"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="40"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="53"/>
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
@@ -2304,11 +2308,11 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="41"/>
-      <c r="F53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="18"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="75"/>
+      <c r="I53" s="54"/>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
@@ -2319,6 +2323,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E15:E23"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
     <mergeCell ref="E48:E53"/>
     <mergeCell ref="F48:F50"/>
     <mergeCell ref="F51:F53"/>
@@ -2335,26 +2359,6 @@
     <mergeCell ref="E36:E41"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="F39:F41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E15:E23"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E6:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>

--- a/1. Project management/AS_PM_MasterDesignPLan.xlsx
+++ b/1. Project management/AS_PM_MasterDesignPLan.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Master design plan" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master design plan'!$E$2:$P$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master design plan'!$E$2:$P$67</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>TIME</t>
   </si>
@@ -164,9 +164,6 @@
 Create quality attribute scenario.</t>
   </si>
   <si>
-    <t>Meeting with customer #1</t>
-  </si>
-  <si>
     <t>Review with mentor #2</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Tạ Ngọc Thien Phú</t>
-  </si>
-  <si>
-    <t>Nguyễn Phan Xuân Huy</t>
   </si>
   <si>
     <t>Review Architectural Drivers Specification with team members</t>
@@ -233,6 +227,95 @@
     <t xml:space="preserve">Establish Project Scope.
 Review customer, mentor &amp; closed architecture drivers specification
 </t>
+  </si>
+  <si>
+    <t>18/12/2013</t>
+  </si>
+  <si>
+    <t>Meeting with customer #4</t>
+  </si>
+  <si>
+    <t>create architect plan</t>
+  </si>
+  <si>
+    <t>system context</t>
+  </si>
+  <si>
+    <t>Develop physical view for admission system (high level)</t>
+  </si>
+  <si>
+    <t>Develop dynamic view for admission system (high level)</t>
+  </si>
+  <si>
+    <t>Develop static view for admission system (high level)</t>
+  </si>
+  <si>
+    <t>Evaluate architect and design for admission system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review with Customer:
++Static View
++Dynamic View
++Physical View
+</t>
+  </si>
+  <si>
+    <t>mapping physical with dynamic</t>
+  </si>
+  <si>
+    <t>mapping static with dynamic</t>
+  </si>
+  <si>
+    <t>Edit Architecture Design</t>
+  </si>
+  <si>
+    <t>Design Interface</t>
+  </si>
+  <si>
+    <t>Evaluate architect and design and interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review with Customer: review 3 perspective and Interface
++Mapping physical – Dynamic and Static –Discuss Interface design
+</t>
+  </si>
+  <si>
+    <t>Edit Architecture Design and Interface</t>
+  </si>
+  <si>
+    <t>Review with Customer to Done Stage 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Architecture Design and Interface
+Create sprint backlog
+</t>
+  </si>
+  <si>
+    <t>18/11/2013</t>
+  </si>
+  <si>
+    <t>27/11/2013</t>
+  </si>
+  <si>
+    <t>31/12/2013</t>
+  </si>
+  <si>
+    <t>13/1/2014</t>
+  </si>
+  <si>
+    <t>14/1/2014</t>
+  </si>
+  <si>
+    <t>20/1/2014</t>
+  </si>
+  <si>
+    <t>21/1/2014</t>
+  </si>
+  <si>
+    <t>22/1/2014</t>
+  </si>
+  <si>
+    <t>25/2/2014</t>
   </si>
 </sst>
 </file>
@@ -242,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +392,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -654,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +823,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -743,6 +838,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -842,16 +946,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,9 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,11 +1322,11 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -1321,7 +1413,7 @@
         <v>41317</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>30</v>
@@ -1336,10 +1428,10 @@
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>30</v>
@@ -1365,10 +1457,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="E2:P56"/>
+  <dimension ref="E2:P67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1468,7 @@
     <col min="1" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="25" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="23.140625" style="1" customWidth="1"/>
@@ -1389,71 +1481,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="53"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="56"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
     </row>
     <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="75"/>
       <c r="J5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -1461,10 +1553,10 @@
       <c r="P5" s="24"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="80" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -1473,11 +1565,11 @@
       <c r="H6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="40" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="30">
         <v>41317</v>
@@ -1491,23 +1583,23 @@
       <c r="P6" s="21"/>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="40"/>
-      <c r="F7" s="77"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="70"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -1515,23 +1607,23 @@
       <c r="P7" s="21"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="40"/>
-      <c r="F8" s="77"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="70"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L8" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -1539,15 +1631,15 @@
       <c r="P8" s="21"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="40"/>
-      <c r="F9" s="77"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="30">
         <v>41345</v>
       </c>
@@ -1563,15 +1655,15 @@
       <c r="P9" s="21"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="40"/>
-      <c r="F10" s="77"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="30">
         <v>41345</v>
       </c>
@@ -1587,15 +1679,15 @@
       <c r="P10" s="21"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="40"/>
-      <c r="F11" s="77"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="70"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="30">
         <v>41559</v>
       </c>
@@ -1611,8 +1703,8 @@
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="40"/>
-      <c r="F12" s="36" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -1621,60 +1713,62 @@
       <c r="H12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="29"/>
+      <c r="L12" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
     </row>
     <row r="13" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="40"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="27" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="60">
+      <c r="I13" s="41"/>
+      <c r="J13" s="67">
         <v>41620</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="67">
         <v>41620</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
     </row>
     <row r="14" spans="5:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="41"/>
-      <c r="F14" s="62"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="31"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="76" t="s">
+      <c r="F15" s="80" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="26" t="s">
@@ -1683,7 +1777,7 @@
       <c r="H15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="40" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="30">
@@ -1699,20 +1793,20 @@
       <c r="P15" s="21"/>
     </row>
     <row r="16" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E16" s="40"/>
-      <c r="F16" s="77"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="19" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="70"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="30">
         <v>41620</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="30">
         <v>41529</v>
@@ -1723,15 +1817,15 @@
       <c r="P16" s="21"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="40"/>
-      <c r="F17" s="77"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="70"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="30">
         <v>41620</v>
       </c>
@@ -1747,23 +1841,23 @@
       <c r="P17" s="21"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="40"/>
-      <c r="F18" s="77"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="16" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -1771,20 +1865,20 @@
       <c r="P18" s="21"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="40"/>
-      <c r="F19" s="77"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="41"/>
       <c r="J19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L19" s="29"/>
       <c r="M19" s="21"/>
@@ -1793,20 +1887,20 @@
       <c r="P19" s="21"/>
     </row>
     <row r="20" spans="5:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E20" s="40"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="79" t="s">
-        <v>64</v>
+      <c r="E20" s="47"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="70"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="21"/>
@@ -1814,21 +1908,21 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="5:16" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="E21" s="40"/>
-      <c r="F21" s="78"/>
+    <row r="21" spans="5:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="E21" s="47"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="70"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="29"/>
       <c r="M21" s="21"/>
@@ -1837,18 +1931,18 @@
       <c r="P21" s="21"/>
     </row>
     <row r="22" spans="5:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E22" s="40"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="79" t="s">
-        <v>66</v>
+      <c r="G22" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="H22" s="18"/>
-      <c r="I22" s="70"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L22" s="29"/>
       <c r="M22" s="21"/>
@@ -1857,18 +1951,18 @@
       <c r="P22" s="21"/>
     </row>
     <row r="23" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E23" s="40"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="32"/>
       <c r="G23" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H23" s="18"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="41"/>
       <c r="J23" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="29"/>
       <c r="M23" s="21"/>
@@ -1877,8 +1971,8 @@
       <c r="P23" s="21"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="40"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="47"/>
+      <c r="F24" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -1887,12 +1981,12 @@
       <c r="H24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="70"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="30">
         <v>41619</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L24" s="30">
         <v>41529</v>
@@ -1903,20 +1997,20 @@
       <c r="P24" s="21"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="40"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="28" t="s">
         <v>45</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="70"/>
+      <c r="I25" s="41"/>
       <c r="J25" s="30">
         <v>41619</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="21"/>
@@ -1925,11 +2019,11 @@
       <c r="P25" s="21"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="41"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="72"/>
+      <c r="I26" s="42"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -1939,47 +2033,69 @@
       <c r="P26" s="21"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="18"/>
-      <c r="I27" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="I27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>86</v>
+      </c>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="40"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="17"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H28" s="18"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="30">
+        <v>41699</v>
+      </c>
+      <c r="L28" s="30">
+        <v>41699</v>
+      </c>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="40"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="17"/>
+    <row r="29" spans="5:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="47"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="35" t="s">
+        <v>71</v>
+      </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="30">
+        <v>41730</v>
+      </c>
       <c r="L29" s="29"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -1987,15 +2103,19 @@
       <c r="P29" s="21"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="40"/>
-      <c r="F30" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="36" t="s">
+        <v>72</v>
+      </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="30">
+        <v>41791</v>
+      </c>
       <c r="L30" s="29"/>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -2003,13 +2123,19 @@
       <c r="P30" s="21"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="40"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="17"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="36" t="s">
+        <v>73</v>
+      </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="30">
+        <v>41730</v>
+      </c>
       <c r="L31" s="29"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -2017,33 +2143,39 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="41"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="17"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="30">
+        <v>41791</v>
+      </c>
+      <c r="K32" s="30">
+        <v>41791</v>
+      </c>
       <c r="L32" s="29"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="17"/>
+    <row r="33" spans="5:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="47"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="H33" s="18"/>
-      <c r="I33" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="30">
+        <v>41821</v>
+      </c>
+      <c r="K33" s="30">
+        <v>41821</v>
+      </c>
       <c r="L33" s="29"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -2051,13 +2183,19 @@
       <c r="P33" s="21"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="40"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="17"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="36" t="s">
+        <v>76</v>
+      </c>
       <c r="H34" s="18"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="30">
+        <v>41821</v>
+      </c>
+      <c r="K34" s="30">
+        <v>41944</v>
+      </c>
       <c r="L34" s="29"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -2065,13 +2203,19 @@
       <c r="P34" s="21"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="40"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="17"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="H35" s="18"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="30">
+        <v>41821</v>
+      </c>
+      <c r="K35" s="30">
+        <v>41944</v>
+      </c>
       <c r="L35" s="29"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -2079,29 +2223,39 @@
       <c r="P35" s="21"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="40"/>
-      <c r="F36" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="H36" s="18"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="30">
+        <v>41821</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="L36" s="29"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="40"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="17"/>
+    <row r="37" spans="5:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="47"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="30">
+        <v>41821</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="L37" s="29"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -2109,11 +2263,13 @@
       <c r="P37" s="21"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="41"/>
-      <c r="F38" s="38"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="43" t="s">
+        <v>1</v>
+      </c>
       <c r="G38" s="17"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="72"/>
+      <c r="I38" s="41"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
@@ -2123,15 +2279,11 @@
       <c r="P38" s="21"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>2</v>
-      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="17"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="73"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
@@ -2141,11 +2293,11 @@
       <c r="P39" s="21"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="40"/>
-      <c r="F40" s="64"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="74"/>
+      <c r="I40" s="41"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
       <c r="L40" s="29"/>
@@ -2155,29 +2307,43 @@
       <c r="P40" s="21"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="40"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="17"/>
+      <c r="E41" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="H41" s="18"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>88</v>
+      </c>
       <c r="L41" s="29"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="40"/>
-      <c r="F42" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="17"/>
+    <row r="42" spans="5:16" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="47"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="H42" s="18"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>89</v>
+      </c>
       <c r="L42" s="29"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -2185,13 +2351,19 @@
       <c r="P42" s="21"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="40"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="17"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="H43" s="18"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="L43" s="29"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
@@ -2199,13 +2371,19 @@
       <c r="P43" s="21"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="41"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="17"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="H44" s="18"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="L44" s="29"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
@@ -2213,31 +2391,39 @@
       <c r="P44" s="21"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="G45" s="17"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="H45" s="18"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>91</v>
+      </c>
       <c r="L45" s="29"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="40"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="17"/>
+    <row r="46" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E46" s="47"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="H46" s="18"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="L46" s="29"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
@@ -2245,11 +2431,13 @@
       <c r="P46" s="21"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="40"/>
-      <c r="F47" s="65"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="43" t="s">
+        <v>1</v>
+      </c>
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
-      <c r="I47" s="74"/>
+      <c r="I47" s="41"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
@@ -2259,13 +2447,11 @@
       <c r="P47" s="21"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="40"/>
-      <c r="F48" s="36" t="s">
-        <v>1</v>
-      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="74"/>
+      <c r="I48" s="41"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
@@ -2275,11 +2461,11 @@
       <c r="P48" s="21"/>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="40"/>
-      <c r="F49" s="37"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
-      <c r="I49" s="74"/>
+      <c r="I49" s="42"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
@@ -2289,11 +2475,15 @@
       <c r="P49" s="21"/>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="41"/>
-      <c r="F50" s="38"/>
+      <c r="E50" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>2</v>
+      </c>
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
-      <c r="I50" s="75"/>
+      <c r="I50" s="77"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
@@ -2303,15 +2493,11 @@
       <c r="P50" s="21"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="63" t="s">
-        <v>2</v>
-      </c>
+      <c r="E51" s="47"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
-      <c r="I51" s="73"/>
+      <c r="I51" s="78"/>
       <c r="J51" s="29"/>
       <c r="K51" s="29"/>
       <c r="L51" s="29"/>
@@ -2321,11 +2507,11 @@
       <c r="P51" s="21"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="40"/>
-      <c r="F52" s="64"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="17"/>
       <c r="H52" s="18"/>
-      <c r="I52" s="74"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
@@ -2335,11 +2521,13 @@
       <c r="P52" s="21"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="40"/>
-      <c r="F53" s="65"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="43" t="s">
+        <v>1</v>
+      </c>
       <c r="G53" s="17"/>
       <c r="H53" s="18"/>
-      <c r="I53" s="74"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
@@ -2349,13 +2537,11 @@
       <c r="P53" s="21"/>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E54" s="40"/>
-      <c r="F54" s="36" t="s">
-        <v>1</v>
-      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="17"/>
       <c r="H54" s="18"/>
-      <c r="I54" s="74"/>
+      <c r="I54" s="78"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -2365,11 +2551,11 @@
       <c r="P54" s="21"/>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E55" s="40"/>
-      <c r="F55" s="37"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="17"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="74"/>
+      <c r="I55" s="79"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
       <c r="L55" s="29"/>
@@ -2379,11 +2565,15 @@
       <c r="P55" s="21"/>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E56" s="41"/>
-      <c r="F56" s="38"/>
+      <c r="E56" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>2</v>
+      </c>
       <c r="G56" s="17"/>
       <c r="H56" s="18"/>
-      <c r="I56" s="75"/>
+      <c r="I56" s="77"/>
       <c r="J56" s="29"/>
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
@@ -2392,37 +2582,193 @@
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
     </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E57" s="47"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E58" s="47"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E59" s="47"/>
+      <c r="F59" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E60" s="47"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E61" s="48"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+    </row>
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E62" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+    </row>
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E63" s="47"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+    </row>
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E64" s="47"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+    </row>
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E65" s="47"/>
+      <c r="F65" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+    </row>
+    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E66" s="47"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+    </row>
+    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E67" s="48"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="F54:F56"/>
+  <mergeCells count="35">
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F67"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="I6:I14"/>
     <mergeCell ref="I15:I26"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="I33:I38"/>
-    <mergeCell ref="I39:I44"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="I51:I56"/>
+    <mergeCell ref="I50:I55"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="I62:I67"/>
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="F15:F21"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E15:E26"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="E56:E61"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="E27:E40"/>
+    <mergeCell ref="F27:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="F47:F49"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="J3:L4"/>
     <mergeCell ref="J13:J14"/>
@@ -2430,6 +2776,11 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="E6:E14"/>
+    <mergeCell ref="I27:I49"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E15:E26"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="E3:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
